--- a/Final.xlsx
+++ b/Final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM67"/>
+  <dimension ref="A1:BM65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,8 +772,10 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
-        <v>0</v>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -784,8 +786,10 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
-        <v>0</v>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
@@ -795,79 +799,117 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="n">
-        <v>0</v>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="n">
-        <v>0</v>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="n">
-        <v>0</v>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="n">
-        <v>0</v>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="n">
-        <v>0</v>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="n">
-        <v>0</v>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0</v>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0</v>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>000000</t>
-        </is>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -887,8 +929,10 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
-        <v>0</v>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -899,8 +943,10 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>0</v>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
@@ -910,69 +956,97 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="n">
-        <v>0</v>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="n">
-        <v>0</v>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="n">
-        <v>1</v>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="n">
-        <v>0</v>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="n">
-        <v>0</v>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="n">
-        <v>1</v>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="n">
-        <v>0</v>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>1</v>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="n">
-        <v>0</v>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>1</v>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="n">
-        <v>1</v>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>000001</t>
-        </is>
-      </c>
-      <c r="BM3" t="n">
-        <v>1</v>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1027,39 +1101,53 @@
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="n">
-        <v>0</v>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="n">
-        <v>0</v>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
-      <c r="BE4" t="n">
-        <v>10</v>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="BF4" t="inlineStr"/>
-      <c r="BG4" t="n">
-        <v>0</v>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="BH4" t="inlineStr"/>
       <c r="BI4" t="inlineStr"/>
-      <c r="BJ4" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>10</v>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>000010</t>
-        </is>
-      </c>
-      <c r="BM4" t="n">
-        <v>1</v>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1129,8 +1217,10 @@
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="inlineStr"/>
       <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="n">
-        <v>0</v>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1150,8 +1240,10 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>0</v>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -1162,8 +1254,10 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="n">
-        <v>0</v>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
@@ -1173,75 +1267,109 @@
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="n">
-        <v>0</v>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="n">
-        <v>10</v>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="n">
-        <v>0</v>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="n">
-        <v>0</v>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="n">
-        <v>10</v>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>10</v>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="n">
-        <v>0</v>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="n">
-        <v>10</v>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>100</v>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="n">
-        <v>10</v>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="BG6" t="inlineStr"/>
-      <c r="BH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>100</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>100</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>100</v>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>000100</t>
-        </is>
-      </c>
-      <c r="BM6" t="n">
-        <v>1</v>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1261,8 +1389,10 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
-        <v>0</v>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -1273,8 +1403,10 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="n">
-        <v>0</v>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -1284,73 +1416,105 @@
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="n">
-        <v>0</v>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="n">
-        <v>10</v>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="n">
-        <v>1</v>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="n">
-        <v>0</v>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="n">
-        <v>10</v>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>10</v>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="n">
-        <v>10</v>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>101</v>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
       </c>
       <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="n">
-        <v>10</v>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>101</v>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>000101</t>
-        </is>
-      </c>
-      <c r="BM7" t="n">
-        <v>1</v>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1420,8 +1584,10 @@
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
       <c r="BL8" t="inlineStr"/>
-      <c r="BM8" t="n">
-        <v>0</v>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1491,8 +1657,10 @@
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr"/>
       <c r="BL9" t="inlineStr"/>
-      <c r="BM9" t="n">
-        <v>0</v>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1512,8 +1680,10 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>0</v>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1524,8 +1694,10 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="n">
-        <v>0</v>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
@@ -1535,69 +1707,97 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="n">
-        <v>10</v>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="n">
-        <v>0</v>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="n">
-        <v>0</v>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="n">
-        <v>10</v>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="n">
-        <v>0</v>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="n">
-        <v>0</v>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="n">
-        <v>100</v>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="n">
-        <v>100</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0</v>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="n">
-        <v>100</v>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="n">
-        <v>100</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0</v>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="n">
-        <v>1000</v>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>001000</t>
-        </is>
-      </c>
-      <c r="BM10" t="n">
-        <v>1</v>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1617,8 +1817,10 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
-        <v>0</v>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1629,8 +1831,10 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="n">
-        <v>0</v>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
@@ -1640,69 +1844,97 @@
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="n">
-        <v>10</v>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="n">
-        <v>0</v>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="n">
-        <v>1</v>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="n">
-        <v>10</v>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="n">
-        <v>0</v>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="n">
-        <v>1</v>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
       <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="n">
-        <v>100</v>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>1</v>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="n">
-        <v>100</v>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>1</v>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="n">
-        <v>1001</v>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>001001</t>
-        </is>
-      </c>
-      <c r="BM11" t="n">
-        <v>1</v>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1772,8 +2004,10 @@
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="inlineStr"/>
       <c r="BL12" t="inlineStr"/>
-      <c r="BM12" t="n">
-        <v>0</v>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1843,8 +2077,10 @@
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="inlineStr"/>
       <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="n">
-        <v>0</v>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1864,8 +2100,10 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>0</v>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1876,8 +2114,10 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
-        <v>0</v>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
@@ -1887,69 +2127,97 @@
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="n">
-        <v>10</v>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="n">
-        <v>10</v>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>0</v>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="n">
-        <v>10</v>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="n">
-        <v>10</v>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="n">
-        <v>0</v>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
       <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="n">
-        <v>110</v>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
       </c>
       <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="n">
-        <v>100</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>100</v>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="BE14" t="inlineStr"/>
-      <c r="BF14" t="n">
-        <v>110</v>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
       </c>
       <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="n">
-        <v>100</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>100</v>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="BJ14" t="inlineStr"/>
-      <c r="BK14" t="n">
-        <v>1100</v>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>001100</t>
-        </is>
-      </c>
-      <c r="BM14" t="n">
-        <v>1</v>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1969,8 +2237,10 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>0</v>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1981,8 +2251,10 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="n">
-        <v>0</v>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
@@ -1992,69 +2264,97 @@
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="n">
-        <v>10</v>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="n">
-        <v>10</v>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="n">
-        <v>1</v>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="n">
-        <v>10</v>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="n">
-        <v>10</v>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="n">
-        <v>1</v>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="inlineStr"/>
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="n">
-        <v>110</v>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
       </c>
       <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>101</v>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
       </c>
       <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="n">
-        <v>110</v>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
       </c>
       <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="n">
-        <v>101</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>101</v>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
       </c>
       <c r="BJ15" t="inlineStr"/>
-      <c r="BK15" t="n">
-        <v>1101</v>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
       </c>
       <c r="BL15" t="inlineStr">
         <is>
-          <t>001101</t>
-        </is>
-      </c>
-      <c r="BM15" t="n">
-        <v>1</v>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2124,8 +2424,10 @@
       <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="inlineStr"/>
       <c r="BL16" t="inlineStr"/>
-      <c r="BM16" t="n">
-        <v>0</v>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2195,8 +2497,10 @@
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="inlineStr"/>
       <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="n">
-        <v>0</v>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2246,18 +2550,24 @@
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="n">
-        <v>100</v>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>0</v>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr"/>
@@ -2266,24 +2576,32 @@
       <c r="BD18" t="inlineStr"/>
       <c r="BE18" t="inlineStr"/>
       <c r="BF18" t="inlineStr"/>
-      <c r="BG18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>1000</v>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="BI18" t="inlineStr"/>
-      <c r="BJ18" t="n">
-        <v>0</v>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="BK18" t="inlineStr"/>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>010000</t>
-        </is>
-      </c>
-      <c r="BM18" t="n">
-        <v>1</v>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2353,8 +2671,10 @@
       <c r="BJ19" t="inlineStr"/>
       <c r="BK19" t="inlineStr"/>
       <c r="BL19" t="inlineStr"/>
-      <c r="BM19" t="n">
-        <v>0</v>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2404,48 +2724,66 @@
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="n">
-        <v>100</v>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="n">
-        <v>0</v>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="n">
-        <v>1010</v>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="BD20" t="inlineStr"/>
-      <c r="BE20" t="n">
-        <v>10</v>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="BF20" t="inlineStr"/>
-      <c r="BG20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>1010</v>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="BI20" t="inlineStr"/>
-      <c r="BJ20" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>10010</v>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>10010</t>
+        </is>
       </c>
       <c r="BL20" t="inlineStr">
         <is>
-          <t>010010</t>
-        </is>
-      </c>
-      <c r="BM20" t="n">
-        <v>1</v>
+          <t>10010</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2515,8 +2853,10 @@
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="inlineStr"/>
       <c r="BL21" t="inlineStr"/>
-      <c r="BM21" t="n">
-        <v>0</v>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2566,18 +2906,24 @@
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="n">
-        <v>100</v>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
-      <c r="AW22" t="n">
-        <v>10</v>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="n">
-        <v>0</v>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr"/>
@@ -2585,27 +2931,37 @@
       <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="inlineStr"/>
       <c r="BE22" t="inlineStr"/>
-      <c r="BF22" t="n">
-        <v>1010</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>1010</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>1000</v>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="BI22" t="inlineStr"/>
-      <c r="BJ22" t="n">
-        <v>100</v>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="BK22" t="inlineStr"/>
       <c r="BL22" t="inlineStr">
         <is>
-          <t>010100</t>
-        </is>
-      </c>
-      <c r="BM22" t="n">
-        <v>1</v>
+          <t>10100</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2659,8 +3015,10 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
-      <c r="AW23" t="n">
-        <v>10</v>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AX23" t="inlineStr"/>
       <c r="AY23" t="inlineStr"/>
@@ -2670,23 +3028,29 @@
       <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="inlineStr"/>
       <c r="BE23" t="inlineStr"/>
-      <c r="BF23" t="n">
-        <v>1010</v>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="BG23" t="inlineStr"/>
       <c r="BH23" t="inlineStr"/>
       <c r="BI23" t="inlineStr"/>
-      <c r="BJ23" t="n">
-        <v>101</v>
+      <c r="BJ23" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
       </c>
       <c r="BK23" t="inlineStr"/>
       <c r="BL23" t="inlineStr">
         <is>
-          <t>010101</t>
-        </is>
-      </c>
-      <c r="BM23" t="n">
-        <v>1</v>
+          <t>10101</t>
+        </is>
+      </c>
+      <c r="BM23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2736,8 +3100,10 @@
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="n">
-        <v>100</v>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr"/>
@@ -2748,30 +3114,40 @@
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
       <c r="BB24" t="inlineStr"/>
-      <c r="BC24" t="n">
-        <v>1010</v>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="BD24" t="inlineStr"/>
       <c r="BE24" t="inlineStr"/>
       <c r="BF24" t="inlineStr"/>
-      <c r="BG24" t="n">
-        <v>1010</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>1010</v>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="BI24" t="inlineStr"/>
       <c r="BJ24" t="inlineStr"/>
-      <c r="BK24" t="n">
-        <v>10110</v>
+      <c r="BK24" t="inlineStr">
+        <is>
+          <t>10110</t>
+        </is>
       </c>
       <c r="BL24" t="inlineStr">
         <is>
-          <t>010110</t>
-        </is>
-      </c>
-      <c r="BM24" t="n">
-        <v>1</v>
+          <t>10110</t>
+        </is>
+      </c>
+      <c r="BM24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -2841,8 +3217,10 @@
       <c r="BJ25" t="inlineStr"/>
       <c r="BK25" t="inlineStr"/>
       <c r="BL25" t="inlineStr"/>
-      <c r="BM25" t="n">
-        <v>0</v>
+      <c r="BM25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -2912,8 +3290,10 @@
       <c r="BJ26" t="inlineStr"/>
       <c r="BK26" t="inlineStr"/>
       <c r="BL26" t="inlineStr"/>
-      <c r="BM26" t="n">
-        <v>0</v>
+      <c r="BM26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -2983,8 +3363,10 @@
       <c r="BJ27" t="inlineStr"/>
       <c r="BK27" t="inlineStr"/>
       <c r="BL27" t="inlineStr"/>
-      <c r="BM27" t="n">
-        <v>0</v>
+      <c r="BM27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3054,8 +3436,10 @@
       <c r="BJ28" t="inlineStr"/>
       <c r="BK28" t="inlineStr"/>
       <c r="BL28" t="inlineStr"/>
-      <c r="BM28" t="n">
-        <v>0</v>
+      <c r="BM28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3115,28 +3499,36 @@
       <c r="AZ29" t="inlineStr"/>
       <c r="BA29" t="inlineStr"/>
       <c r="BB29" t="inlineStr"/>
-      <c r="BC29" t="n">
-        <v>1111</v>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
       </c>
       <c r="BD29" t="inlineStr"/>
       <c r="BE29" t="inlineStr"/>
       <c r="BF29" t="inlineStr"/>
       <c r="BG29" t="inlineStr"/>
-      <c r="BH29" t="n">
-        <v>1111</v>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
       </c>
       <c r="BI29" t="inlineStr"/>
       <c r="BJ29" t="inlineStr"/>
-      <c r="BK29" t="n">
-        <v>11011</v>
+      <c r="BK29" t="inlineStr">
+        <is>
+          <t>11011</t>
+        </is>
       </c>
       <c r="BL29" t="inlineStr">
         <is>
-          <t>011011</t>
-        </is>
-      </c>
-      <c r="BM29" t="n">
-        <v>1</v>
+          <t>11011</t>
+        </is>
+      </c>
+      <c r="BM29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3206,8 +3598,10 @@
       <c r="BJ30" t="inlineStr"/>
       <c r="BK30" t="inlineStr"/>
       <c r="BL30" t="inlineStr"/>
-      <c r="BM30" t="n">
-        <v>0</v>
+      <c r="BM30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3277,8 +3671,10 @@
       <c r="BJ31" t="inlineStr"/>
       <c r="BK31" t="inlineStr"/>
       <c r="BL31" t="inlineStr"/>
-      <c r="BM31" t="n">
-        <v>0</v>
+      <c r="BM31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3348,8 +3744,10 @@
       <c r="BJ32" t="inlineStr"/>
       <c r="BK32" t="inlineStr"/>
       <c r="BL32" t="inlineStr"/>
-      <c r="BM32" t="n">
-        <v>0</v>
+      <c r="BM32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3409,28 +3807,36 @@
       <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr"/>
       <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="n">
-        <v>1111</v>
+      <c r="BC33" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
       </c>
       <c r="BD33" t="inlineStr"/>
       <c r="BE33" t="inlineStr"/>
       <c r="BF33" t="inlineStr"/>
       <c r="BG33" t="inlineStr"/>
-      <c r="BH33" t="n">
-        <v>1111</v>
+      <c r="BH33" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
       </c>
       <c r="BI33" t="inlineStr"/>
       <c r="BJ33" t="inlineStr"/>
-      <c r="BK33" t="n">
-        <v>11111</v>
+      <c r="BK33" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
       </c>
       <c r="BL33" t="inlineStr">
         <is>
-          <t>011111</t>
-        </is>
-      </c>
-      <c r="BM33" t="n">
-        <v>1</v>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="BM33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3450,8 +3856,10 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="n">
-        <v>0</v>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -3462,8 +3870,10 @@
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="n">
-        <v>100</v>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
@@ -3473,75 +3883,109 @@
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="n">
-        <v>0</v>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="n">
-        <v>0</v>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="n">
-        <v>0</v>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>1000</v>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="n">
-        <v>1000</v>
+      <c r="AV34" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="AW34" t="inlineStr"/>
       <c r="AX34" t="inlineStr"/>
       <c r="AY34" t="inlineStr"/>
       <c r="AZ34" t="inlineStr"/>
-      <c r="BA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>0</v>
+      <c r="BA34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="BE34" t="inlineStr"/>
-      <c r="BF34" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BG34" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BH34" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BI34" t="n">
-        <v>10000</v>
+      <c r="BF34" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="BG34" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="BH34" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="BI34" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
       </c>
       <c r="BJ34" t="inlineStr"/>
-      <c r="BK34" t="n">
-        <v>0</v>
+      <c r="BK34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="BL34" t="inlineStr">
         <is>
           <t>100000</t>
         </is>
       </c>
-      <c r="BM34" t="n">
-        <v>1</v>
+      <c r="BM34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3561,8 +4005,10 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="n">
-        <v>0</v>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -3573,8 +4019,10 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="n">
-        <v>100</v>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
@@ -3584,69 +4032,97 @@
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="n">
-        <v>0</v>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="n">
-        <v>0</v>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="n">
-        <v>1</v>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="n">
-        <v>1000</v>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="n">
-        <v>1000</v>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="AU35" t="inlineStr"/>
-      <c r="AV35" t="n">
-        <v>1001</v>
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
       </c>
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
       <c r="AY35" t="inlineStr"/>
       <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="n">
-        <v>0</v>
+      <c r="BA35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>1</v>
+      <c r="BC35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="BE35" t="inlineStr"/>
-      <c r="BF35" t="n">
-        <v>10000</v>
+      <c r="BF35" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
       </c>
       <c r="BG35" t="inlineStr"/>
-      <c r="BH35" t="n">
-        <v>10001</v>
-      </c>
-      <c r="BI35" t="n">
-        <v>10001</v>
+      <c r="BH35" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+      <c r="BI35" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
       </c>
       <c r="BJ35" t="inlineStr"/>
-      <c r="BK35" t="n">
-        <v>1</v>
+      <c r="BK35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="BL35" t="inlineStr">
         <is>
           <t>100001</t>
         </is>
       </c>
-      <c r="BM35" t="n">
-        <v>1</v>
+      <c r="BM35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3696,48 +4172,66 @@
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
       <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="n">
-        <v>1000</v>
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AU36" t="inlineStr"/>
       <c r="AV36" t="inlineStr"/>
       <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="n">
-        <v>1010</v>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="AZ36" t="inlineStr"/>
       <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="n">
-        <v>0</v>
+      <c r="BB36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="BC36" t="inlineStr"/>
       <c r="BD36" t="inlineStr"/>
-      <c r="BE36" t="n">
-        <v>10</v>
+      <c r="BE36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="BF36" t="inlineStr"/>
-      <c r="BG36" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BH36" t="n">
-        <v>10010</v>
+      <c r="BG36" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="BH36" t="inlineStr">
+        <is>
+          <t>10010</t>
+        </is>
       </c>
       <c r="BI36" t="inlineStr"/>
-      <c r="BJ36" t="n">
-        <v>10010</v>
-      </c>
-      <c r="BK36" t="n">
-        <v>10</v>
+      <c r="BJ36" t="inlineStr">
+        <is>
+          <t>10010</t>
+        </is>
+      </c>
+      <c r="BK36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="BL36" t="inlineStr">
         <is>
           <t>100010</t>
         </is>
       </c>
-      <c r="BM36" t="n">
-        <v>1</v>
+      <c r="BM36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3807,8 +4301,10 @@
       <c r="BJ37" t="inlineStr"/>
       <c r="BK37" t="inlineStr"/>
       <c r="BL37" t="inlineStr"/>
-      <c r="BM37" t="n">
-        <v>0</v>
+      <c r="BM37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3828,8 +4324,10 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="n">
-        <v>0</v>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -3840,8 +4338,10 @@
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="n">
-        <v>100</v>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
@@ -3851,73 +4351,105 @@
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="n">
-        <v>0</v>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="n">
-        <v>10</v>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="n">
-        <v>0</v>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>1010</v>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="AU38" t="inlineStr"/>
-      <c r="AV38" t="n">
-        <v>1000</v>
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="inlineStr"/>
       <c r="AY38" t="inlineStr"/>
       <c r="AZ38" t="inlineStr"/>
-      <c r="BA38" t="n">
-        <v>10</v>
+      <c r="BA38" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="BB38" t="inlineStr"/>
-      <c r="BC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>100</v>
+      <c r="BC38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD38" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="BE38" t="inlineStr"/>
-      <c r="BF38" t="n">
-        <v>10010</v>
-      </c>
-      <c r="BG38" t="n">
-        <v>10010</v>
-      </c>
-      <c r="BH38" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BI38" t="n">
-        <v>10100</v>
+      <c r="BF38" t="inlineStr">
+        <is>
+          <t>10010</t>
+        </is>
+      </c>
+      <c r="BG38" t="inlineStr">
+        <is>
+          <t>10010</t>
+        </is>
+      </c>
+      <c r="BH38" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="BI38" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
       </c>
       <c r="BJ38" t="inlineStr"/>
-      <c r="BK38" t="n">
-        <v>100</v>
+      <c r="BK38" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="BL38" t="inlineStr">
         <is>
           <t>100100</t>
         </is>
       </c>
-      <c r="BM38" t="n">
-        <v>1</v>
+      <c r="BM38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3937,8 +4469,10 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="n">
-        <v>0</v>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -3949,8 +4483,10 @@
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="n">
-        <v>100</v>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
@@ -3960,69 +4496,97 @@
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="n">
-        <v>0</v>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="n">
-        <v>10</v>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="n">
-        <v>1</v>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="n">
-        <v>1000</v>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="AS39" t="inlineStr"/>
-      <c r="AT39" t="n">
-        <v>1010</v>
+      <c r="AT39" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="AU39" t="inlineStr"/>
-      <c r="AV39" t="n">
-        <v>1001</v>
+      <c r="AV39" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
       </c>
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="inlineStr"/>
       <c r="AY39" t="inlineStr"/>
       <c r="AZ39" t="inlineStr"/>
-      <c r="BA39" t="n">
-        <v>10</v>
+      <c r="BA39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="BB39" t="inlineStr"/>
-      <c r="BC39" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>101</v>
+      <c r="BC39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD39" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
       </c>
       <c r="BE39" t="inlineStr"/>
-      <c r="BF39" t="n">
-        <v>10010</v>
+      <c r="BF39" t="inlineStr">
+        <is>
+          <t>10010</t>
+        </is>
       </c>
       <c r="BG39" t="inlineStr"/>
-      <c r="BH39" t="n">
-        <v>10001</v>
-      </c>
-      <c r="BI39" t="n">
-        <v>10101</v>
+      <c r="BH39" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+      <c r="BI39" t="inlineStr">
+        <is>
+          <t>10101</t>
+        </is>
       </c>
       <c r="BJ39" t="inlineStr"/>
-      <c r="BK39" t="n">
-        <v>101</v>
+      <c r="BK39" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
       </c>
       <c r="BL39" t="inlineStr">
         <is>
           <t>100101</t>
         </is>
       </c>
-      <c r="BM39" t="n">
-        <v>1</v>
+      <c r="BM39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -4072,16 +4636,20 @@
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
       <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="n">
-        <v>1000</v>
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="inlineStr"/>
       <c r="AW40" t="inlineStr"/>
       <c r="AX40" t="inlineStr"/>
-      <c r="AY40" t="n">
-        <v>1010</v>
+      <c r="AY40" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="AZ40" t="inlineStr"/>
       <c r="BA40" t="inlineStr"/>
@@ -4090,15 +4658,21 @@
       <c r="BD40" t="inlineStr"/>
       <c r="BE40" t="inlineStr"/>
       <c r="BF40" t="inlineStr"/>
-      <c r="BG40" t="n">
-        <v>10010</v>
-      </c>
-      <c r="BH40" t="n">
-        <v>10010</v>
+      <c r="BG40" t="inlineStr">
+        <is>
+          <t>10010</t>
+        </is>
+      </c>
+      <c r="BH40" t="inlineStr">
+        <is>
+          <t>10010</t>
+        </is>
       </c>
       <c r="BI40" t="inlineStr"/>
-      <c r="BJ40" t="n">
-        <v>10110</v>
+      <c r="BJ40" t="inlineStr">
+        <is>
+          <t>10110</t>
+        </is>
       </c>
       <c r="BK40" t="inlineStr"/>
       <c r="BL40" t="inlineStr">
@@ -4106,8 +4680,10 @@
           <t>100110</t>
         </is>
       </c>
-      <c r="BM40" t="n">
-        <v>1</v>
+      <c r="BM40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -4177,8 +4753,10 @@
       <c r="BJ41" t="inlineStr"/>
       <c r="BK41" t="inlineStr"/>
       <c r="BL41" t="inlineStr"/>
-      <c r="BM41" t="n">
-        <v>0</v>
+      <c r="BM41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -4198,8 +4776,10 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="n">
-        <v>0</v>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -4210,8 +4790,10 @@
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="n">
-        <v>100</v>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
@@ -4221,73 +4803,105 @@
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="n">
-        <v>10</v>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="n">
-        <v>0</v>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="n">
-        <v>0</v>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="n">
-        <v>1010</v>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="AS42" t="inlineStr"/>
-      <c r="AT42" t="n">
-        <v>1000</v>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="AU42" t="inlineStr"/>
-      <c r="AV42" t="n">
-        <v>1000</v>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="inlineStr"/>
-      <c r="AY42" t="n">
-        <v>1100</v>
+      <c r="AY42" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
       </c>
       <c r="AZ42" t="inlineStr"/>
-      <c r="BA42" t="n">
-        <v>100</v>
+      <c r="BA42" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="BB42" t="inlineStr"/>
-      <c r="BC42" t="n">
-        <v>100</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>0</v>
+      <c r="BC42" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BD42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="BE42" t="inlineStr"/>
-      <c r="BF42" t="n">
-        <v>10100</v>
+      <c r="BF42" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
       </c>
       <c r="BG42" t="inlineStr"/>
-      <c r="BH42" t="n">
-        <v>10100</v>
-      </c>
-      <c r="BI42" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BJ42" t="n">
-        <v>11000</v>
-      </c>
-      <c r="BK42" t="n">
-        <v>1000</v>
+      <c r="BH42" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
+      </c>
+      <c r="BI42" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="BJ42" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+      <c r="BK42" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="BL42" t="inlineStr">
         <is>
           <t>101000</t>
         </is>
       </c>
-      <c r="BM42" t="n">
-        <v>1</v>
+      <c r="BM42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -4307,8 +4921,10 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="n">
-        <v>0</v>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -4319,8 +4935,10 @@
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="n">
-        <v>100</v>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
@@ -4330,69 +4948,97 @@
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="n">
-        <v>10</v>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="n">
-        <v>0</v>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="n">
-        <v>1</v>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="n">
-        <v>1010</v>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="AS43" t="inlineStr"/>
-      <c r="AT43" t="n">
-        <v>1000</v>
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="AU43" t="inlineStr"/>
-      <c r="AV43" t="n">
-        <v>1001</v>
+      <c r="AV43" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
       </c>
       <c r="AW43" t="inlineStr"/>
       <c r="AX43" t="inlineStr"/>
       <c r="AY43" t="inlineStr"/>
       <c r="AZ43" t="inlineStr"/>
-      <c r="BA43" t="n">
-        <v>100</v>
+      <c r="BA43" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="BB43" t="inlineStr"/>
-      <c r="BC43" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>1</v>
+      <c r="BC43" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="BD43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="BE43" t="inlineStr"/>
-      <c r="BF43" t="n">
-        <v>10100</v>
+      <c r="BF43" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
       </c>
       <c r="BG43" t="inlineStr"/>
-      <c r="BH43" t="n">
-        <v>10101</v>
-      </c>
-      <c r="BI43" t="n">
-        <v>10001</v>
+      <c r="BH43" t="inlineStr">
+        <is>
+          <t>10101</t>
+        </is>
+      </c>
+      <c r="BI43" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
       </c>
       <c r="BJ43" t="inlineStr"/>
-      <c r="BK43" t="n">
-        <v>1001</v>
+      <c r="BK43" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
       </c>
       <c r="BL43" t="inlineStr">
         <is>
           <t>101001</t>
         </is>
       </c>
-      <c r="BM43" t="n">
-        <v>1</v>
+      <c r="BM43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -4462,8 +5108,10 @@
       <c r="BJ44" t="inlineStr"/>
       <c r="BK44" t="inlineStr"/>
       <c r="BL44" t="inlineStr"/>
-      <c r="BM44" t="n">
-        <v>0</v>
+      <c r="BM44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -4533,8 +5181,10 @@
       <c r="BJ45" t="inlineStr"/>
       <c r="BK45" t="inlineStr"/>
       <c r="BL45" t="inlineStr"/>
-      <c r="BM45" t="n">
-        <v>0</v>
+      <c r="BM45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -4554,8 +5204,10 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="n">
-        <v>0</v>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
@@ -4566,8 +5218,10 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="n">
-        <v>100</v>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
@@ -4577,73 +5231,105 @@
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="n">
-        <v>10</v>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="n">
-        <v>10</v>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AK46" t="inlineStr"/>
-      <c r="AL46" t="n">
-        <v>0</v>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
-      <c r="AR46" t="n">
-        <v>1010</v>
+      <c r="AR46" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="AS46" t="inlineStr"/>
-      <c r="AT46" t="n">
-        <v>1010</v>
+      <c r="AT46" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="AU46" t="inlineStr"/>
-      <c r="AV46" t="n">
-        <v>1000</v>
+      <c r="AV46" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="AW46" t="inlineStr"/>
       <c r="AX46" t="inlineStr"/>
-      <c r="AY46" t="n">
-        <v>1100</v>
+      <c r="AY46" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
       </c>
       <c r="AZ46" t="inlineStr"/>
-      <c r="BA46" t="n">
-        <v>110</v>
+      <c r="BA46" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
       </c>
       <c r="BB46" t="inlineStr"/>
-      <c r="BC46" t="n">
-        <v>100</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>100</v>
+      <c r="BC46" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BD46" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="BE46" t="inlineStr"/>
-      <c r="BF46" t="n">
-        <v>10110</v>
+      <c r="BF46" t="inlineStr">
+        <is>
+          <t>10110</t>
+        </is>
       </c>
       <c r="BG46" t="inlineStr"/>
-      <c r="BH46" t="n">
-        <v>10100</v>
-      </c>
-      <c r="BI46" t="n">
-        <v>10100</v>
-      </c>
-      <c r="BJ46" t="n">
-        <v>11100</v>
-      </c>
-      <c r="BK46" t="n">
-        <v>1100</v>
+      <c r="BH46" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
+      </c>
+      <c r="BI46" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
+      </c>
+      <c r="BJ46" t="inlineStr">
+        <is>
+          <t>11100</t>
+        </is>
+      </c>
+      <c r="BK46" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
       </c>
       <c r="BL46" t="inlineStr">
         <is>
           <t>101100</t>
         </is>
       </c>
-      <c r="BM46" t="n">
-        <v>1</v>
+      <c r="BM46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -4663,8 +5349,10 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="n">
-        <v>0</v>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -4675,8 +5363,10 @@
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="n">
-        <v>100</v>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
@@ -4686,69 +5376,97 @@
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="n">
-        <v>10</v>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="n">
-        <v>10</v>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="AK47" t="inlineStr"/>
-      <c r="AL47" t="n">
-        <v>1</v>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="n">
-        <v>1010</v>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="AS47" t="inlineStr"/>
-      <c r="AT47" t="n">
-        <v>1010</v>
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="AU47" t="inlineStr"/>
-      <c r="AV47" t="n">
-        <v>1001</v>
+      <c r="AV47" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
       </c>
       <c r="AW47" t="inlineStr"/>
       <c r="AX47" t="inlineStr"/>
       <c r="AY47" t="inlineStr"/>
       <c r="AZ47" t="inlineStr"/>
-      <c r="BA47" t="n">
-        <v>110</v>
+      <c r="BA47" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
       </c>
       <c r="BB47" t="inlineStr"/>
-      <c r="BC47" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD47" t="n">
-        <v>101</v>
+      <c r="BC47" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="BD47" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
       </c>
       <c r="BE47" t="inlineStr"/>
-      <c r="BF47" t="n">
-        <v>10110</v>
+      <c r="BF47" t="inlineStr">
+        <is>
+          <t>10110</t>
+        </is>
       </c>
       <c r="BG47" t="inlineStr"/>
-      <c r="BH47" t="n">
-        <v>10101</v>
-      </c>
-      <c r="BI47" t="n">
-        <v>10101</v>
+      <c r="BH47" t="inlineStr">
+        <is>
+          <t>10101</t>
+        </is>
+      </c>
+      <c r="BI47" t="inlineStr">
+        <is>
+          <t>10101</t>
+        </is>
       </c>
       <c r="BJ47" t="inlineStr"/>
-      <c r="BK47" t="n">
-        <v>1101</v>
+      <c r="BK47" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
       </c>
       <c r="BL47" t="inlineStr">
         <is>
           <t>101101</t>
         </is>
       </c>
-      <c r="BM47" t="n">
-        <v>1</v>
+      <c r="BM47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4818,8 +5536,10 @@
       <c r="BJ48" t="inlineStr"/>
       <c r="BK48" t="inlineStr"/>
       <c r="BL48" t="inlineStr"/>
-      <c r="BM48" t="n">
-        <v>0</v>
+      <c r="BM48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4889,8 +5609,10 @@
       <c r="BJ49" t="inlineStr"/>
       <c r="BK49" t="inlineStr"/>
       <c r="BL49" t="inlineStr"/>
-      <c r="BM49" t="n">
-        <v>0</v>
+      <c r="BM49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4960,8 +5682,10 @@
       <c r="BJ50" t="inlineStr"/>
       <c r="BK50" t="inlineStr"/>
       <c r="BL50" t="inlineStr"/>
-      <c r="BM50" t="n">
-        <v>0</v>
+      <c r="BM50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -5031,8 +5755,10 @@
       <c r="BJ51" t="inlineStr"/>
       <c r="BK51" t="inlineStr"/>
       <c r="BL51" t="inlineStr"/>
-      <c r="BM51" t="n">
-        <v>0</v>
+      <c r="BM51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -5088,38 +5814,52 @@
       <c r="AV52" t="inlineStr"/>
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr"/>
-      <c r="AY52" t="n">
-        <v>1010</v>
+      <c r="AY52" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="AZ52" t="inlineStr"/>
       <c r="BA52" t="inlineStr"/>
       <c r="BB52" t="inlineStr"/>
-      <c r="BC52" t="n">
-        <v>1010</v>
+      <c r="BC52" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="BD52" t="inlineStr"/>
-      <c r="BE52" t="n">
-        <v>10</v>
+      <c r="BE52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="BF52" t="inlineStr"/>
       <c r="BG52" t="inlineStr"/>
-      <c r="BH52" t="n">
-        <v>11010</v>
+      <c r="BH52" t="inlineStr">
+        <is>
+          <t>11010</t>
+        </is>
       </c>
       <c r="BI52" t="inlineStr"/>
-      <c r="BJ52" t="n">
-        <v>10010</v>
-      </c>
-      <c r="BK52" t="n">
-        <v>10010</v>
+      <c r="BJ52" t="inlineStr">
+        <is>
+          <t>10010</t>
+        </is>
+      </c>
+      <c r="BK52" t="inlineStr">
+        <is>
+          <t>10010</t>
+        </is>
       </c>
       <c r="BL52" t="inlineStr">
         <is>
           <t>110010</t>
         </is>
       </c>
-      <c r="BM52" t="n">
-        <v>1</v>
+      <c r="BM52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -5189,8 +5929,10 @@
       <c r="BJ53" t="inlineStr"/>
       <c r="BK53" t="inlineStr"/>
       <c r="BL53" t="inlineStr"/>
-      <c r="BM53" t="n">
-        <v>0</v>
+      <c r="BM53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -5260,8 +6002,10 @@
       <c r="BJ54" t="inlineStr"/>
       <c r="BK54" t="inlineStr"/>
       <c r="BL54" t="inlineStr"/>
-      <c r="BM54" t="n">
-        <v>0</v>
+      <c r="BM54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -5331,8 +6075,10 @@
       <c r="BJ55" t="inlineStr"/>
       <c r="BK55" t="inlineStr"/>
       <c r="BL55" t="inlineStr"/>
-      <c r="BM55" t="n">
-        <v>0</v>
+      <c r="BM55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -5388,36 +6134,48 @@
       <c r="AV56" t="inlineStr"/>
       <c r="AW56" t="inlineStr"/>
       <c r="AX56" t="inlineStr"/>
-      <c r="AY56" t="n">
-        <v>1010</v>
+      <c r="AY56" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="AZ56" t="inlineStr"/>
       <c r="BA56" t="inlineStr"/>
       <c r="BB56" t="inlineStr"/>
-      <c r="BC56" t="n">
-        <v>1010</v>
+      <c r="BC56" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
       </c>
       <c r="BD56" t="inlineStr"/>
       <c r="BE56" t="inlineStr"/>
       <c r="BF56" t="inlineStr"/>
       <c r="BG56" t="inlineStr"/>
-      <c r="BH56" t="n">
-        <v>11010</v>
+      <c r="BH56" t="inlineStr">
+        <is>
+          <t>11010</t>
+        </is>
       </c>
       <c r="BI56" t="inlineStr"/>
-      <c r="BJ56" t="n">
-        <v>10110</v>
-      </c>
-      <c r="BK56" t="n">
-        <v>10110</v>
+      <c r="BJ56" t="inlineStr">
+        <is>
+          <t>10110</t>
+        </is>
+      </c>
+      <c r="BK56" t="inlineStr">
+        <is>
+          <t>10110</t>
+        </is>
       </c>
       <c r="BL56" t="inlineStr">
         <is>
           <t>110110</t>
         </is>
       </c>
-      <c r="BM56" t="n">
-        <v>1</v>
+      <c r="BM56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -5487,8 +6245,10 @@
       <c r="BJ57" t="inlineStr"/>
       <c r="BK57" t="inlineStr"/>
       <c r="BL57" t="inlineStr"/>
-      <c r="BM57" t="n">
-        <v>0</v>
+      <c r="BM57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -5544,8 +6304,10 @@
       <c r="AV58" t="inlineStr"/>
       <c r="AW58" t="inlineStr"/>
       <c r="AX58" t="inlineStr"/>
-      <c r="AY58" t="n">
-        <v>1100</v>
+      <c r="AY58" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
       </c>
       <c r="AZ58" t="inlineStr"/>
       <c r="BA58" t="inlineStr"/>
@@ -5555,12 +6317,16 @@
       <c r="BE58" t="inlineStr"/>
       <c r="BF58" t="inlineStr"/>
       <c r="BG58" t="inlineStr"/>
-      <c r="BH58" t="n">
-        <v>11100</v>
+      <c r="BH58" t="inlineStr">
+        <is>
+          <t>11100</t>
+        </is>
       </c>
       <c r="BI58" t="inlineStr"/>
-      <c r="BJ58" t="n">
-        <v>11000</v>
+      <c r="BJ58" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
       </c>
       <c r="BK58" t="inlineStr"/>
       <c r="BL58" t="inlineStr">
@@ -5568,8 +6334,10 @@
           <t>111000</t>
         </is>
       </c>
-      <c r="BM58" t="n">
-        <v>1</v>
+      <c r="BM58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -5639,8 +6407,10 @@
       <c r="BJ59" t="inlineStr"/>
       <c r="BK59" t="inlineStr"/>
       <c r="BL59" t="inlineStr"/>
-      <c r="BM59" t="n">
-        <v>0</v>
+      <c r="BM59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -5710,8 +6480,10 @@
       <c r="BJ60" t="inlineStr"/>
       <c r="BK60" t="inlineStr"/>
       <c r="BL60" t="inlineStr"/>
-      <c r="BM60" t="n">
-        <v>0</v>
+      <c r="BM60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -5771,28 +6543,36 @@
       <c r="AZ61" t="inlineStr"/>
       <c r="BA61" t="inlineStr"/>
       <c r="BB61" t="inlineStr"/>
-      <c r="BC61" t="n">
-        <v>1111</v>
+      <c r="BC61" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
       </c>
       <c r="BD61" t="inlineStr"/>
       <c r="BE61" t="inlineStr"/>
       <c r="BF61" t="inlineStr"/>
       <c r="BG61" t="inlineStr"/>
-      <c r="BH61" t="n">
-        <v>11111</v>
+      <c r="BH61" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
       </c>
       <c r="BI61" t="inlineStr"/>
       <c r="BJ61" t="inlineStr"/>
-      <c r="BK61" t="n">
-        <v>11011</v>
+      <c r="BK61" t="inlineStr">
+        <is>
+          <t>11011</t>
+        </is>
       </c>
       <c r="BL61" t="inlineStr">
         <is>
           <t>111011</t>
         </is>
       </c>
-      <c r="BM61" t="n">
-        <v>1</v>
+      <c r="BM61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -5848,8 +6628,10 @@
       <c r="AV62" t="inlineStr"/>
       <c r="AW62" t="inlineStr"/>
       <c r="AX62" t="inlineStr"/>
-      <c r="AY62" t="n">
-        <v>1100</v>
+      <c r="AY62" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
       </c>
       <c r="AZ62" t="inlineStr"/>
       <c r="BA62" t="inlineStr"/>
@@ -5859,12 +6641,16 @@
       <c r="BE62" t="inlineStr"/>
       <c r="BF62" t="inlineStr"/>
       <c r="BG62" t="inlineStr"/>
-      <c r="BH62" t="n">
-        <v>11100</v>
+      <c r="BH62" t="inlineStr">
+        <is>
+          <t>11100</t>
+        </is>
       </c>
       <c r="BI62" t="inlineStr"/>
-      <c r="BJ62" t="n">
-        <v>11100</v>
+      <c r="BJ62" t="inlineStr">
+        <is>
+          <t>11100</t>
+        </is>
       </c>
       <c r="BK62" t="inlineStr"/>
       <c r="BL62" t="inlineStr">
@@ -5872,8 +6658,10 @@
           <t>111100</t>
         </is>
       </c>
-      <c r="BM62" t="n">
-        <v>1</v>
+      <c r="BM62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -5943,8 +6731,10 @@
       <c r="BJ63" t="inlineStr"/>
       <c r="BK63" t="inlineStr"/>
       <c r="BL63" t="inlineStr"/>
-      <c r="BM63" t="n">
-        <v>0</v>
+      <c r="BM63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -6014,350 +6804,100 @@
       <c r="BJ64" t="inlineStr"/>
       <c r="BK64" t="inlineStr"/>
       <c r="BL64" t="inlineStr"/>
-      <c r="BM64" t="n">
-        <v>0</v>
+      <c r="BM64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>11</v>
-      </c>
-      <c r="I65" t="n">
-        <v>11</v>
-      </c>
-      <c r="J65" t="n">
-        <v>11</v>
-      </c>
-      <c r="K65" t="n">
-        <v>11</v>
-      </c>
-      <c r="L65" t="n">
-        <v>11</v>
-      </c>
-      <c r="M65" t="n">
-        <v>11</v>
-      </c>
-      <c r="N65" t="n">
-        <v>11</v>
-      </c>
-      <c r="O65" t="n">
-        <v>11</v>
-      </c>
-      <c r="P65" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>11</v>
-      </c>
-      <c r="R65" t="n">
-        <v>11</v>
-      </c>
-      <c r="S65" t="n">
-        <v>11</v>
-      </c>
-      <c r="T65" t="n">
-        <v>11</v>
-      </c>
-      <c r="U65" t="n">
-        <v>11</v>
-      </c>
-      <c r="V65" t="n">
-        <v>11</v>
-      </c>
-      <c r="W65" t="n">
-        <v>111</v>
-      </c>
-      <c r="X65" t="n">
-        <v>111</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>111</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AO65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AP65" t="n">
-        <v>111</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>1111</v>
-      </c>
-      <c r="AR65" t="n">
-        <v>1111</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>1111</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>1111</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>1111</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>1111</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>1111</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>1111</v>
-      </c>
-      <c r="AY65" t="n">
-        <v>1111</v>
-      </c>
-      <c r="AZ65" t="n">
-        <v>1111</v>
-      </c>
-      <c r="BA65" t="n">
-        <v>1111</v>
-      </c>
-      <c r="BB65" t="n">
-        <v>1111</v>
-      </c>
-      <c r="BC65" t="n">
-        <v>1111</v>
-      </c>
-      <c r="BD65" t="n">
-        <v>1111</v>
-      </c>
-      <c r="BE65" t="n">
-        <v>1111</v>
-      </c>
-      <c r="BF65" t="n">
-        <v>11111</v>
-      </c>
-      <c r="BG65" t="n">
-        <v>11111</v>
-      </c>
-      <c r="BH65" t="n">
-        <v>11111</v>
-      </c>
-      <c r="BI65" t="n">
-        <v>11111</v>
-      </c>
-      <c r="BJ65" t="n">
-        <v>11111</v>
-      </c>
-      <c r="BK65" t="n">
-        <v>11111</v>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
+      <c r="AO65" t="inlineStr"/>
+      <c r="AP65" t="inlineStr"/>
+      <c r="AQ65" t="inlineStr"/>
+      <c r="AR65" t="inlineStr"/>
+      <c r="AS65" t="inlineStr"/>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AU65" t="inlineStr"/>
+      <c r="AV65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr"/>
+      <c r="AX65" t="inlineStr"/>
+      <c r="AY65" t="inlineStr"/>
+      <c r="AZ65" t="inlineStr"/>
+      <c r="BA65" t="inlineStr"/>
+      <c r="BB65" t="inlineStr"/>
+      <c r="BC65" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="BD65" t="inlineStr"/>
+      <c r="BE65" t="inlineStr"/>
+      <c r="BF65" t="inlineStr"/>
+      <c r="BG65" t="inlineStr"/>
+      <c r="BH65" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="BI65" t="inlineStr"/>
+      <c r="BJ65" t="inlineStr"/>
+      <c r="BK65" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
       </c>
       <c r="BL65" t="inlineStr">
         <is>
           <t>111111</t>
         </is>
       </c>
-      <c r="BM65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="inlineStr"/>
-      <c r="AG66" t="inlineStr"/>
-      <c r="AH66" t="inlineStr"/>
-      <c r="AI66" t="inlineStr"/>
-      <c r="AJ66" t="inlineStr"/>
-      <c r="AK66" t="inlineStr"/>
-      <c r="AL66" t="inlineStr"/>
-      <c r="AM66" t="inlineStr"/>
-      <c r="AN66" t="inlineStr"/>
-      <c r="AO66" t="inlineStr"/>
-      <c r="AP66" t="inlineStr"/>
-      <c r="AQ66" t="inlineStr"/>
-      <c r="AR66" t="inlineStr"/>
-      <c r="AS66" t="inlineStr"/>
-      <c r="AT66" t="inlineStr"/>
-      <c r="AU66" t="inlineStr"/>
-      <c r="AV66" t="inlineStr"/>
-      <c r="AW66" t="inlineStr"/>
-      <c r="AX66" t="inlineStr"/>
-      <c r="AY66" t="inlineStr"/>
-      <c r="AZ66" t="inlineStr"/>
-      <c r="BA66" t="inlineStr"/>
-      <c r="BB66" t="inlineStr"/>
-      <c r="BC66" t="inlineStr"/>
-      <c r="BD66" t="inlineStr"/>
-      <c r="BE66" t="inlineStr"/>
-      <c r="BF66" t="inlineStr"/>
-      <c r="BG66" t="inlineStr"/>
-      <c r="BH66" t="inlineStr"/>
-      <c r="BI66" t="inlineStr"/>
-      <c r="BJ66" t="inlineStr"/>
-      <c r="BK66" t="inlineStr"/>
-      <c r="BL66" t="inlineStr"/>
-      <c r="BM66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
-      <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="inlineStr"/>
-      <c r="AG67" t="inlineStr"/>
-      <c r="AH67" t="inlineStr"/>
-      <c r="AI67" t="inlineStr"/>
-      <c r="AJ67" t="inlineStr"/>
-      <c r="AK67" t="inlineStr"/>
-      <c r="AL67" t="inlineStr"/>
-      <c r="AM67" t="inlineStr"/>
-      <c r="AN67" t="inlineStr"/>
-      <c r="AO67" t="inlineStr"/>
-      <c r="AP67" t="inlineStr"/>
-      <c r="AQ67" t="inlineStr"/>
-      <c r="AR67" t="inlineStr"/>
-      <c r="AS67" t="inlineStr"/>
-      <c r="AT67" t="inlineStr"/>
-      <c r="AU67" t="inlineStr"/>
-      <c r="AV67" t="inlineStr"/>
-      <c r="AW67" t="inlineStr"/>
-      <c r="AX67" t="inlineStr"/>
-      <c r="AY67" t="inlineStr"/>
-      <c r="AZ67" t="inlineStr"/>
-      <c r="BA67" t="inlineStr"/>
-      <c r="BB67" t="inlineStr"/>
-      <c r="BC67" t="inlineStr"/>
-      <c r="BD67" t="inlineStr"/>
-      <c r="BE67" t="inlineStr"/>
-      <c r="BF67" t="inlineStr"/>
-      <c r="BG67" t="inlineStr"/>
-      <c r="BH67" t="inlineStr"/>
-      <c r="BI67" t="inlineStr"/>
-      <c r="BJ67" t="inlineStr"/>
-      <c r="BK67" t="inlineStr"/>
-      <c r="BL67" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="BM67" t="inlineStr"/>
+      <c r="BM65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Final.xlsx
+++ b/Final.xlsx
@@ -772,15 +772,15 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
@@ -794,17 +794,21 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AJ2" t="inlineStr">
         <is>
           <t>0</t>
@@ -817,8 +821,16 @@
         </is>
       </c>
       <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr">
@@ -826,7 +838,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr">
         <is>
           <t>0</t>
@@ -849,7 +865,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AZ2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BA2" t="inlineStr">
         <is>
           <t>0</t>
@@ -870,7 +890,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="BE2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BF2" t="inlineStr">
         <is>
           <t>0</t>
@@ -929,11 +953,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -956,11 +976,7 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -968,11 +984,7 @@
         </is>
       </c>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
@@ -1005,11 +1017,7 @@
         </is>
       </c>
       <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr">
         <is>
           <t>1</t>
@@ -1070,7 +1078,11 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
@@ -1080,23 +1092,43 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
@@ -1106,7 +1138,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr">
@@ -1114,7 +1150,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="BC4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr">
         <is>
@@ -1127,7 +1167,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="BH4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="inlineStr">
         <is>
@@ -1240,15 +1284,15 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1262,22 +1306,22 @@
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr">
         <is>
@@ -1285,16 +1329,32 @@
         </is>
       </c>
       <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AT6" t="inlineStr">
         <is>
           <t>10</t>
@@ -1306,24 +1366,24 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AW6" t="inlineStr">
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr">
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="inlineStr">
         <is>
           <t>0</t>
@@ -1334,13 +1394,21 @@
           <t>100</t>
         </is>
       </c>
-      <c r="BE6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="BF6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="BG6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="BH6" t="inlineStr">
         <is>
           <t>0</t>
@@ -1389,11 +1457,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -1416,28 +1480,20 @@
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
@@ -1455,37 +1511,25 @@
           <t>1</t>
         </is>
       </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BD7" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="BG7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="BH7" t="inlineStr">
         <is>
           <t>1</t>
@@ -1496,16 +1540,8 @@
           <t>101</t>
         </is>
       </c>
-      <c r="BJ7" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="BK7" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr">
         <is>
           <t>101</t>
@@ -1538,7 +1574,11 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1548,42 +1588,114 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="BD8" t="inlineStr"/>
-      <c r="BE8" t="inlineStr"/>
-      <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="BM8" t="inlineStr">
         <is>
           <t>0</t>
@@ -1635,7 +1747,11 @@
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr"/>
@@ -1645,18 +1761,38 @@
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="BB9" t="inlineStr"/>
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
       <c r="BE9" t="inlineStr"/>
-      <c r="BF9" t="inlineStr"/>
-      <c r="BG9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="BH9" t="inlineStr"/>
       <c r="BI9" t="inlineStr"/>
       <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
       <c r="BM9" t="inlineStr">
         <is>
           <t>0</t>
@@ -1680,11 +1816,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
@@ -1749,7 +1881,11 @@
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BA10" t="inlineStr">
         <is>
           <t>100</t>
@@ -1783,7 +1919,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="BJ10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="BK10" t="inlineStr">
         <is>
           <t>1000</t>
@@ -1817,11 +1957,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1856,11 +1992,7 @@
         </is>
       </c>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
@@ -2100,11 +2232,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
@@ -2133,11 +2261,7 @@
         </is>
       </c>
       <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr">
         <is>
@@ -2237,11 +2361,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -2270,17 +2390,9 @@
         </is>
       </c>
       <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
@@ -2318,11 +2430,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="BD15" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
+      <c r="BD15" t="inlineStr"/>
       <c r="BE15" t="inlineStr"/>
       <c r="BF15" t="inlineStr">
         <is>
@@ -2524,7 +2632,11 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -2534,19 +2646,35 @@
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
@@ -2556,7 +2684,11 @@
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="inlineStr">
@@ -2569,12 +2701,28 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AZ18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="BD18" t="inlineStr"/>
-      <c r="BE18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BF18" t="inlineStr"/>
       <c r="BG18" t="inlineStr">
         <is>
@@ -2586,13 +2734,21 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="BI18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="BJ18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BK18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
       <c r="BL18" t="inlineStr">
         <is>
           <t>10000</t>
@@ -2698,7 +2854,11 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -2708,19 +2868,39 @@
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
@@ -2730,24 +2910,44 @@
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AY20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="BC20" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="BD20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
       <c r="BE20" t="inlineStr">
         <is>
           <t>10</t>
@@ -2764,7 +2964,11 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="BI20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
       <c r="BJ20" t="inlineStr">
         <is>
           <t>10</t>
@@ -2880,7 +3084,11 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -2890,19 +3098,35 @@
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
@@ -2914,12 +3138,12 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
-      <c r="AW22" t="inlineStr">
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AX22" t="inlineStr"/>
       <c r="AY22" t="inlineStr">
         <is>
           <t>0</t>
@@ -2927,15 +3151,23 @@
       </c>
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr"/>
-      <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="BD22" t="inlineStr"/>
-      <c r="BE22" t="inlineStr"/>
-      <c r="BF22" t="inlineStr">
-        <is>
-          <t>1010</t>
-        </is>
-      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr"/>
       <c r="BG22" t="inlineStr">
         <is>
           <t>1010</t>
@@ -2952,7 +3184,11 @@
           <t>100</t>
         </is>
       </c>
-      <c r="BK22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
+      </c>
       <c r="BL22" t="inlineStr">
         <is>
           <t>10100</t>
@@ -3015,11 +3251,7 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
-      <c r="AW23" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="inlineStr"/>
       <c r="AY23" t="inlineStr"/>
       <c r="AZ23" t="inlineStr"/>
@@ -3028,28 +3260,16 @@
       <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="inlineStr"/>
       <c r="BE23" t="inlineStr"/>
-      <c r="BF23" t="inlineStr">
-        <is>
-          <t>1010</t>
-        </is>
-      </c>
+      <c r="BF23" t="inlineStr"/>
       <c r="BG23" t="inlineStr"/>
       <c r="BH23" t="inlineStr"/>
       <c r="BI23" t="inlineStr"/>
-      <c r="BJ23" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
+      <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="inlineStr"/>
-      <c r="BL23" t="inlineStr">
-        <is>
-          <t>10101</t>
-        </is>
-      </c>
+      <c r="BL23" t="inlineStr"/>
       <c r="BM23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3294,11 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -3084,19 +3308,39 @@
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
@@ -3107,20 +3351,44 @@
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr"/>
-      <c r="AV24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="AW24" t="inlineStr"/>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
-      <c r="BB24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
       <c r="BC24" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="BD24" t="inlineStr"/>
-      <c r="BE24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="BF24" t="inlineStr"/>
       <c r="BG24" t="inlineStr">
         <is>
@@ -3132,8 +3400,16 @@
           <t>1010</t>
         </is>
       </c>
-      <c r="BI24" t="inlineStr"/>
-      <c r="BJ24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="BJ24" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="BK24" t="inlineStr">
         <is>
           <t>10110</t>
@@ -3272,24 +3548,48 @@
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr"/>
       <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BA26" t="inlineStr"/>
       <c r="BB26" t="inlineStr"/>
       <c r="BC26" t="inlineStr"/>
       <c r="BD26" t="inlineStr"/>
       <c r="BE26" t="inlineStr"/>
       <c r="BF26" t="inlineStr"/>
-      <c r="BG26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
       <c r="BH26" t="inlineStr"/>
-      <c r="BI26" t="inlineStr"/>
-      <c r="BJ26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="BJ26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="BK26" t="inlineStr"/>
-      <c r="BL26" t="inlineStr"/>
+      <c r="BL26" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
       <c r="BM26" t="inlineStr">
         <is>
           <t>0</t>
@@ -3405,37 +3705,93 @@
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
       <c r="AS28" t="inlineStr"/>
       <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="inlineStr"/>
-      <c r="AV28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="inlineStr"/>
       <c r="AY28" t="inlineStr"/>
       <c r="AZ28" t="inlineStr"/>
-      <c r="BA28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
       <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="inlineStr"/>
-      <c r="BD28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="BD28" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
       <c r="BE28" t="inlineStr"/>
-      <c r="BF28" t="inlineStr"/>
-      <c r="BG28" t="inlineStr"/>
-      <c r="BH28" t="inlineStr"/>
-      <c r="BI28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="BG28" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="BI28" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
       <c r="BJ28" t="inlineStr"/>
-      <c r="BK28" t="inlineStr"/>
-      <c r="BL28" t="inlineStr"/>
+      <c r="BK28" t="inlineStr">
+        <is>
+          <t>11010</t>
+        </is>
+      </c>
+      <c r="BL28" t="inlineStr">
+        <is>
+          <t>11010</t>
+        </is>
+      </c>
       <c r="BM28" t="inlineStr">
         <is>
           <t>0</t>
@@ -3478,7 +3834,11 @@
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
@@ -3488,7 +3848,11 @@
       <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
       <c r="AS29" t="inlineStr"/>
       <c r="AT29" t="inlineStr"/>
       <c r="AU29" t="inlineStr"/>
@@ -3497,7 +3861,11 @@
       <c r="AX29" t="inlineStr"/>
       <c r="AY29" t="inlineStr"/>
       <c r="AZ29" t="inlineStr"/>
-      <c r="BA29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
       <c r="BB29" t="inlineStr"/>
       <c r="BC29" t="inlineStr">
         <is>
@@ -3506,7 +3874,11 @@
       </c>
       <c r="BD29" t="inlineStr"/>
       <c r="BE29" t="inlineStr"/>
-      <c r="BF29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
       <c r="BG29" t="inlineStr"/>
       <c r="BH29" t="inlineStr">
         <is>
@@ -3713,37 +4085,85 @@
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
       <c r="AS32" t="inlineStr"/>
       <c r="AT32" t="inlineStr"/>
       <c r="AU32" t="inlineStr"/>
-      <c r="AV32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
       <c r="AY32" t="inlineStr"/>
       <c r="AZ32" t="inlineStr"/>
-      <c r="BA32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
       <c r="BB32" t="inlineStr"/>
-      <c r="BC32" t="inlineStr"/>
-      <c r="BD32" t="inlineStr"/>
+      <c r="BC32" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="BD32" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
       <c r="BE32" t="inlineStr"/>
-      <c r="BF32" t="inlineStr"/>
+      <c r="BF32" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
       <c r="BG32" t="inlineStr"/>
-      <c r="BH32" t="inlineStr"/>
-      <c r="BI32" t="inlineStr"/>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="BI32" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
       <c r="BJ32" t="inlineStr"/>
-      <c r="BK32" t="inlineStr"/>
-      <c r="BL32" t="inlineStr"/>
+      <c r="BK32" t="inlineStr">
+        <is>
+          <t>11110</t>
+        </is>
+      </c>
+      <c r="BL32" t="inlineStr">
+        <is>
+          <t>11110</t>
+        </is>
+      </c>
       <c r="BM32" t="inlineStr">
         <is>
           <t>0</t>
@@ -3786,7 +4206,11 @@
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
@@ -3796,7 +4220,11 @@
       <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
       <c r="AS33" t="inlineStr"/>
       <c r="AT33" t="inlineStr"/>
       <c r="AU33" t="inlineStr"/>
@@ -3805,7 +4233,11 @@
       <c r="AX33" t="inlineStr"/>
       <c r="AY33" t="inlineStr"/>
       <c r="AZ33" t="inlineStr"/>
-      <c r="BA33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
       <c r="BB33" t="inlineStr"/>
       <c r="BC33" t="inlineStr">
         <is>
@@ -3814,7 +4246,11 @@
       </c>
       <c r="BD33" t="inlineStr"/>
       <c r="BE33" t="inlineStr"/>
-      <c r="BF33" t="inlineStr"/>
+      <c r="BF33" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
       <c r="BG33" t="inlineStr"/>
       <c r="BH33" t="inlineStr">
         <is>
@@ -3856,39 +4292,39 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AJ34" t="inlineStr">
         <is>
           <t>0</t>
@@ -3901,15 +4337,23 @@
         </is>
       </c>
       <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr">
+      <c r="AQ34" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
+      <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr">
         <is>
           <t>1000</t>
@@ -3927,8 +4371,16 @@
         </is>
       </c>
       <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="AZ34" t="inlineStr"/>
       <c r="BA34" t="inlineStr">
         <is>
@@ -3950,7 +4402,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="BE34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BF34" t="inlineStr">
         <is>
           <t>10000</t>
@@ -3971,7 +4427,11 @@
           <t>10000</t>
         </is>
       </c>
-      <c r="BJ34" t="inlineStr"/>
+      <c r="BJ34" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
       <c r="BK34" t="inlineStr">
         <is>
           <t>0</t>
@@ -4005,11 +4465,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
@@ -4019,11 +4475,7 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
@@ -4032,11 +4484,7 @@
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr">
         <is>
@@ -4044,21 +4492,17 @@
         </is>
       </c>
       <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
+      <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
       <c r="AT35" t="inlineStr">
         <is>
@@ -4066,11 +4510,7 @@
         </is>
       </c>
       <c r="AU35" t="inlineStr"/>
-      <c r="AV35" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
+      <c r="AV35" t="inlineStr"/>
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
       <c r="AY35" t="inlineStr"/>
@@ -4081,11 +4521,7 @@
         </is>
       </c>
       <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="inlineStr">
         <is>
           <t>1</t>
@@ -4097,12 +4533,12 @@
           <t>10000</t>
         </is>
       </c>
-      <c r="BG35" t="inlineStr"/>
-      <c r="BH35" t="inlineStr">
+      <c r="BG35" t="inlineStr">
         <is>
           <t>10001</t>
         </is>
       </c>
+      <c r="BH35" t="inlineStr"/>
       <c r="BI35" t="inlineStr">
         <is>
           <t>10001</t>
@@ -4146,7 +4582,11 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
@@ -4156,22 +4596,46 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="inlineStr"/>
-      <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
       <c r="AS36" t="inlineStr">
         <is>
           <t>1000</t>
@@ -4181,7 +4645,11 @@
       <c r="AU36" t="inlineStr"/>
       <c r="AV36" t="inlineStr"/>
       <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="AY36" t="inlineStr">
         <is>
           <t>1010</t>
@@ -4194,14 +4662,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="BC36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="BD36" t="inlineStr"/>
       <c r="BE36" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="BF36" t="inlineStr"/>
+      <c r="BF36" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
       <c r="BG36" t="inlineStr">
         <is>
           <t>10000</t>
@@ -4279,8 +4755,16 @@
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
       <c r="AS37" t="inlineStr"/>
       <c r="AT37" t="inlineStr"/>
       <c r="AU37" t="inlineStr"/>
@@ -4294,13 +4778,29 @@
       <c r="BC37" t="inlineStr"/>
       <c r="BD37" t="inlineStr"/>
       <c r="BE37" t="inlineStr"/>
-      <c r="BF37" t="inlineStr"/>
-      <c r="BG37" t="inlineStr"/>
-      <c r="BH37" t="inlineStr"/>
+      <c r="BF37" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+      <c r="BG37" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+      <c r="BH37" t="inlineStr">
+        <is>
+          <t>10011</t>
+        </is>
+      </c>
       <c r="BI37" t="inlineStr"/>
       <c r="BJ37" t="inlineStr"/>
       <c r="BK37" t="inlineStr"/>
-      <c r="BL37" t="inlineStr"/>
+      <c r="BL37" t="inlineStr">
+        <is>
+          <t>100011</t>
+        </is>
+      </c>
       <c r="BM37" t="inlineStr">
         <is>
           <t>0</t>
@@ -4324,44 +4824,40 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr">
         <is>
@@ -4369,25 +4865,25 @@
         </is>
       </c>
       <c r="AM38" t="inlineStr"/>
-      <c r="AN38" t="inlineStr"/>
-      <c r="AO38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr">
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="AS38" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="AT38" t="inlineStr">
-        <is>
-          <t>1010</t>
-        </is>
-      </c>
+      <c r="AT38" t="inlineStr"/>
       <c r="AU38" t="inlineStr"/>
       <c r="AV38" t="inlineStr">
         <is>
@@ -4395,15 +4891,27 @@
         </is>
       </c>
       <c r="AW38" t="inlineStr"/>
-      <c r="AX38" t="inlineStr"/>
-      <c r="AY38" t="inlineStr"/>
-      <c r="AZ38" t="inlineStr"/>
-      <c r="BA38" t="inlineStr">
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AZ38" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="BB38" t="inlineStr"/>
       <c r="BC38" t="inlineStr">
         <is>
           <t>0</t>
@@ -4414,17 +4922,17 @@
           <t>100</t>
         </is>
       </c>
-      <c r="BE38" t="inlineStr"/>
-      <c r="BF38" t="inlineStr">
+      <c r="BE38" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr">
         <is>
           <t>10010</t>
         </is>
       </c>
-      <c r="BG38" t="inlineStr">
-        <is>
-          <t>10010</t>
-        </is>
-      </c>
       <c r="BH38" t="inlineStr">
         <is>
           <t>10000</t>
@@ -4435,7 +4943,11 @@
           <t>10100</t>
         </is>
       </c>
-      <c r="BJ38" t="inlineStr"/>
+      <c r="BJ38" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
+      </c>
       <c r="BK38" t="inlineStr">
         <is>
           <t>100</t>
@@ -4469,11 +4981,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
@@ -4483,11 +4991,7 @@
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
@@ -4496,96 +5000,40 @@
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
+      <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
-      <c r="AT39" t="inlineStr">
-        <is>
-          <t>1010</t>
-        </is>
-      </c>
+      <c r="AT39" t="inlineStr"/>
       <c r="AU39" t="inlineStr"/>
-      <c r="AV39" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
+      <c r="AV39" t="inlineStr"/>
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="inlineStr"/>
       <c r="AY39" t="inlineStr"/>
       <c r="AZ39" t="inlineStr"/>
-      <c r="BA39" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="BA39" t="inlineStr"/>
       <c r="BB39" t="inlineStr"/>
-      <c r="BC39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BD39" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="inlineStr"/>
       <c r="BE39" t="inlineStr"/>
-      <c r="BF39" t="inlineStr">
-        <is>
-          <t>10010</t>
-        </is>
-      </c>
+      <c r="BF39" t="inlineStr"/>
       <c r="BG39" t="inlineStr"/>
-      <c r="BH39" t="inlineStr">
-        <is>
-          <t>10001</t>
-        </is>
-      </c>
-      <c r="BI39" t="inlineStr">
-        <is>
-          <t>10101</t>
-        </is>
-      </c>
+      <c r="BH39" t="inlineStr"/>
+      <c r="BI39" t="inlineStr"/>
       <c r="BJ39" t="inlineStr"/>
-      <c r="BK39" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="BL39" t="inlineStr">
-        <is>
-          <t>100101</t>
-        </is>
-      </c>
+      <c r="BK39" t="inlineStr"/>
+      <c r="BL39" t="inlineStr"/>
       <c r="BM39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4610,7 +5058,11 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -4620,22 +5072,42 @@
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
-      <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
       <c r="AS40" t="inlineStr">
         <is>
           <t>1000</t>
@@ -4645,19 +5117,43 @@
       <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="inlineStr"/>
       <c r="AW40" t="inlineStr"/>
-      <c r="AX40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
       <c r="AY40" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
       <c r="AZ40" t="inlineStr"/>
-      <c r="BA40" t="inlineStr"/>
-      <c r="BB40" t="inlineStr"/>
-      <c r="BC40" t="inlineStr"/>
+      <c r="BA40" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="BB40" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BC40" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="BD40" t="inlineStr"/>
-      <c r="BE40" t="inlineStr"/>
-      <c r="BF40" t="inlineStr"/>
+      <c r="BE40" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="BF40" t="inlineStr">
+        <is>
+          <t>10011</t>
+        </is>
+      </c>
       <c r="BG40" t="inlineStr">
         <is>
           <t>10010</t>
@@ -4674,7 +5170,11 @@
           <t>10110</t>
         </is>
       </c>
-      <c r="BK40" t="inlineStr"/>
+      <c r="BK40" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="BL40" t="inlineStr">
         <is>
           <t>100110</t>
@@ -4732,7 +5232,11 @@
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
       <c r="AS41" t="inlineStr"/>
       <c r="AT41" t="inlineStr"/>
       <c r="AU41" t="inlineStr"/>
@@ -4741,18 +5245,38 @@
       <c r="AX41" t="inlineStr"/>
       <c r="AY41" t="inlineStr"/>
       <c r="AZ41" t="inlineStr"/>
-      <c r="BA41" t="inlineStr"/>
+      <c r="BA41" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="BB41" t="inlineStr"/>
       <c r="BC41" t="inlineStr"/>
       <c r="BD41" t="inlineStr"/>
       <c r="BE41" t="inlineStr"/>
-      <c r="BF41" t="inlineStr"/>
+      <c r="BF41" t="inlineStr">
+        <is>
+          <t>10011</t>
+        </is>
+      </c>
       <c r="BG41" t="inlineStr"/>
-      <c r="BH41" t="inlineStr"/>
+      <c r="BH41" t="inlineStr">
+        <is>
+          <t>10011</t>
+        </is>
+      </c>
       <c r="BI41" t="inlineStr"/>
       <c r="BJ41" t="inlineStr"/>
-      <c r="BK41" t="inlineStr"/>
-      <c r="BL41" t="inlineStr"/>
+      <c r="BK41" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="BL41" t="inlineStr">
+        <is>
+          <t>100111</t>
+        </is>
+      </c>
       <c r="BM41" t="inlineStr">
         <is>
           <t>0</t>
@@ -4776,11 +5300,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
@@ -4790,11 +5310,7 @@
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
@@ -4844,11 +5360,7 @@
       </c>
       <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="inlineStr"/>
-      <c r="AY42" t="inlineStr">
-        <is>
-          <t>1100</t>
-        </is>
-      </c>
+      <c r="AY42" t="inlineStr"/>
       <c r="AZ42" t="inlineStr"/>
       <c r="BA42" t="inlineStr">
         <is>
@@ -4883,11 +5395,7 @@
           <t>10000</t>
         </is>
       </c>
-      <c r="BJ42" t="inlineStr">
-        <is>
-          <t>11000</t>
-        </is>
-      </c>
+      <c r="BJ42" t="inlineStr"/>
       <c r="BK42" t="inlineStr">
         <is>
           <t>1000</t>
@@ -4921,11 +5429,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
@@ -4935,11 +5439,7 @@
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
@@ -4960,11 +5460,7 @@
         </is>
       </c>
       <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="AL43" t="inlineStr"/>
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
@@ -4982,11 +5478,7 @@
         </is>
       </c>
       <c r="AU43" t="inlineStr"/>
-      <c r="AV43" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
+      <c r="AV43" t="inlineStr"/>
       <c r="AW43" t="inlineStr"/>
       <c r="AX43" t="inlineStr"/>
       <c r="AY43" t="inlineStr"/>
@@ -5204,11 +5696,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -5218,11 +5706,7 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
@@ -5237,11 +5721,7 @@
         </is>
       </c>
       <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr">
         <is>
@@ -5259,11 +5739,7 @@
         </is>
       </c>
       <c r="AS46" t="inlineStr"/>
-      <c r="AT46" t="inlineStr">
-        <is>
-          <t>1010</t>
-        </is>
-      </c>
+      <c r="AT46" t="inlineStr"/>
       <c r="AU46" t="inlineStr"/>
       <c r="AV46" t="inlineStr">
         <is>
@@ -5272,12 +5748,12 @@
       </c>
       <c r="AW46" t="inlineStr"/>
       <c r="AX46" t="inlineStr"/>
-      <c r="AY46" t="inlineStr">
+      <c r="AY46" t="inlineStr"/>
+      <c r="AZ46" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
       </c>
-      <c r="AZ46" t="inlineStr"/>
       <c r="BA46" t="inlineStr">
         <is>
           <t>110</t>
@@ -5349,11 +5825,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -5363,11 +5835,7 @@
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
@@ -5382,17 +5850,9 @@
         </is>
       </c>
       <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
-      <c r="AL47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr"/>
@@ -5404,17 +5864,9 @@
         </is>
       </c>
       <c r="AS47" t="inlineStr"/>
-      <c r="AT47" t="inlineStr">
-        <is>
-          <t>1010</t>
-        </is>
-      </c>
+      <c r="AT47" t="inlineStr"/>
       <c r="AU47" t="inlineStr"/>
-      <c r="AV47" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
+      <c r="AV47" t="inlineStr"/>
       <c r="AW47" t="inlineStr"/>
       <c r="AX47" t="inlineStr"/>
       <c r="AY47" t="inlineStr"/>
@@ -5430,11 +5882,7 @@
           <t>101</t>
         </is>
       </c>
-      <c r="BD47" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
+      <c r="BD47" t="inlineStr"/>
       <c r="BE47" t="inlineStr"/>
       <c r="BF47" t="inlineStr">
         <is>
@@ -5447,11 +5895,7 @@
           <t>10101</t>
         </is>
       </c>
-      <c r="BI47" t="inlineStr">
-        <is>
-          <t>10101</t>
-        </is>
-      </c>
+      <c r="BI47" t="inlineStr"/>
       <c r="BJ47" t="inlineStr"/>
       <c r="BK47" t="inlineStr">
         <is>
@@ -5636,7 +6080,11 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -5646,42 +6094,102 @@
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr"/>
-      <c r="AI50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AJ50" t="inlineStr"/>
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="inlineStr"/>
-      <c r="AN50" t="inlineStr"/>
-      <c r="AO50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
       <c r="AR50" t="inlineStr"/>
-      <c r="AS50" t="inlineStr"/>
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AU50" t="inlineStr"/>
       <c r="AV50" t="inlineStr"/>
       <c r="AW50" t="inlineStr"/>
-      <c r="AX50" t="inlineStr"/>
-      <c r="AY50" t="inlineStr"/>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="AZ50" t="inlineStr"/>
       <c r="BA50" t="inlineStr"/>
-      <c r="BB50" t="inlineStr"/>
-      <c r="BC50" t="inlineStr"/>
+      <c r="BB50" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="BC50" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="BD50" t="inlineStr"/>
-      <c r="BE50" t="inlineStr"/>
+      <c r="BE50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BF50" t="inlineStr"/>
-      <c r="BG50" t="inlineStr"/>
-      <c r="BH50" t="inlineStr"/>
+      <c r="BG50" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+      <c r="BH50" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
       <c r="BI50" t="inlineStr"/>
-      <c r="BJ50" t="inlineStr"/>
-      <c r="BK50" t="inlineStr"/>
-      <c r="BL50" t="inlineStr"/>
+      <c r="BJ50" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="BK50" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="BL50" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
+      </c>
       <c r="BM50" t="inlineStr">
         <is>
           <t>0</t>
@@ -5782,7 +6290,11 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -5792,28 +6304,60 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
-      <c r="AI52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="inlineStr"/>
-      <c r="AL52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="AM52" t="inlineStr"/>
-      <c r="AN52" t="inlineStr"/>
-      <c r="AO52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="AP52" t="inlineStr"/>
       <c r="AQ52" t="inlineStr"/>
       <c r="AR52" t="inlineStr"/>
-      <c r="AS52" t="inlineStr"/>
+      <c r="AS52" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AU52" t="inlineStr"/>
-      <c r="AV52" t="inlineStr"/>
+      <c r="AV52" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
       <c r="AW52" t="inlineStr"/>
-      <c r="AX52" t="inlineStr"/>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="AY52" t="inlineStr">
         <is>
           <t>1010</t>
@@ -5821,26 +6365,42 @@
       </c>
       <c r="AZ52" t="inlineStr"/>
       <c r="BA52" t="inlineStr"/>
-      <c r="BB52" t="inlineStr"/>
+      <c r="BB52" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="BC52" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="BD52" t="inlineStr"/>
+      <c r="BD52" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
       <c r="BE52" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
       <c r="BF52" t="inlineStr"/>
-      <c r="BG52" t="inlineStr"/>
+      <c r="BG52" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
       <c r="BH52" t="inlineStr">
         <is>
           <t>11010</t>
         </is>
       </c>
-      <c r="BI52" t="inlineStr"/>
+      <c r="BI52" t="inlineStr">
+        <is>
+          <t>11010</t>
+        </is>
+      </c>
       <c r="BJ52" t="inlineStr">
         <is>
           <t>10010</t>
@@ -5956,7 +6516,11 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
@@ -5966,42 +6530,114 @@
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
-      <c r="AI54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
       <c r="AM54" t="inlineStr"/>
-      <c r="AN54" t="inlineStr"/>
-      <c r="AO54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AP54" t="inlineStr"/>
       <c r="AQ54" t="inlineStr"/>
       <c r="AR54" t="inlineStr"/>
-      <c r="AS54" t="inlineStr"/>
+      <c r="AS54" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
       <c r="AT54" t="inlineStr"/>
-      <c r="AU54" t="inlineStr"/>
+      <c r="AU54" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
       <c r="AV54" t="inlineStr"/>
       <c r="AW54" t="inlineStr"/>
-      <c r="AX54" t="inlineStr"/>
-      <c r="AY54" t="inlineStr"/>
-      <c r="AZ54" t="inlineStr"/>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AZ54" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
       <c r="BA54" t="inlineStr"/>
-      <c r="BB54" t="inlineStr"/>
-      <c r="BC54" t="inlineStr"/>
+      <c r="BB54" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="BC54" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
       <c r="BD54" t="inlineStr"/>
-      <c r="BE54" t="inlineStr"/>
+      <c r="BE54" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="BF54" t="inlineStr"/>
-      <c r="BG54" t="inlineStr"/>
-      <c r="BH54" t="inlineStr"/>
-      <c r="BI54" t="inlineStr"/>
-      <c r="BJ54" t="inlineStr"/>
-      <c r="BK54" t="inlineStr"/>
-      <c r="BL54" t="inlineStr"/>
+      <c r="BG54" t="inlineStr">
+        <is>
+          <t>11010</t>
+        </is>
+      </c>
+      <c r="BH54" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+      <c r="BI54" t="inlineStr">
+        <is>
+          <t>11100</t>
+        </is>
+      </c>
+      <c r="BJ54" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
+      </c>
+      <c r="BK54" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
+      </c>
+      <c r="BL54" t="inlineStr">
+        <is>
+          <t>110100</t>
+        </is>
+      </c>
       <c r="BM54" t="inlineStr">
         <is>
           <t>0</t>
@@ -6102,7 +6738,11 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -6112,28 +6752,64 @@
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="AJ56" t="inlineStr"/>
       <c r="AK56" t="inlineStr"/>
-      <c r="AL56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="AM56" t="inlineStr"/>
-      <c r="AN56" t="inlineStr"/>
-      <c r="AO56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr"/>
       <c r="AR56" t="inlineStr"/>
-      <c r="AS56" t="inlineStr"/>
+      <c r="AS56" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
       <c r="AT56" t="inlineStr"/>
-      <c r="AU56" t="inlineStr"/>
-      <c r="AV56" t="inlineStr"/>
+      <c r="AU56" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="AV56" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
       <c r="AW56" t="inlineStr"/>
-      <c r="AX56" t="inlineStr"/>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
       <c r="AY56" t="inlineStr">
         <is>
           <t>1010</t>
@@ -6141,22 +6817,42 @@
       </c>
       <c r="AZ56" t="inlineStr"/>
       <c r="BA56" t="inlineStr"/>
-      <c r="BB56" t="inlineStr"/>
+      <c r="BB56" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
       <c r="BC56" t="inlineStr">
         <is>
           <t>1010</t>
         </is>
       </c>
-      <c r="BD56" t="inlineStr"/>
-      <c r="BE56" t="inlineStr"/>
+      <c r="BD56" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="BE56" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="BF56" t="inlineStr"/>
-      <c r="BG56" t="inlineStr"/>
+      <c r="BG56" t="inlineStr">
+        <is>
+          <t>11010</t>
+        </is>
+      </c>
       <c r="BH56" t="inlineStr">
         <is>
           <t>11010</t>
         </is>
       </c>
-      <c r="BI56" t="inlineStr"/>
+      <c r="BI56" t="inlineStr">
+        <is>
+          <t>11110</t>
+        </is>
+      </c>
       <c r="BJ56" t="inlineStr">
         <is>
           <t>10110</t>
@@ -6304,11 +7000,7 @@
       <c r="AV58" t="inlineStr"/>
       <c r="AW58" t="inlineStr"/>
       <c r="AX58" t="inlineStr"/>
-      <c r="AY58" t="inlineStr">
-        <is>
-          <t>1100</t>
-        </is>
-      </c>
+      <c r="AY58" t="inlineStr"/>
       <c r="AZ58" t="inlineStr"/>
       <c r="BA58" t="inlineStr"/>
       <c r="BB58" t="inlineStr"/>
@@ -6317,26 +7009,14 @@
       <c r="BE58" t="inlineStr"/>
       <c r="BF58" t="inlineStr"/>
       <c r="BG58" t="inlineStr"/>
-      <c r="BH58" t="inlineStr">
-        <is>
-          <t>11100</t>
-        </is>
-      </c>
+      <c r="BH58" t="inlineStr"/>
       <c r="BI58" t="inlineStr"/>
-      <c r="BJ58" t="inlineStr">
-        <is>
-          <t>11000</t>
-        </is>
-      </c>
+      <c r="BJ58" t="inlineStr"/>
       <c r="BK58" t="inlineStr"/>
-      <c r="BL58" t="inlineStr">
-        <is>
-          <t>111000</t>
-        </is>
-      </c>
+      <c r="BL58" t="inlineStr"/>
       <c r="BM58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6449,37 +7129,85 @@
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="inlineStr"/>
-      <c r="AH60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
       <c r="AI60" t="inlineStr"/>
       <c r="AJ60" t="inlineStr"/>
       <c r="AK60" t="inlineStr"/>
-      <c r="AL60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
-      <c r="AR60" t="inlineStr"/>
+      <c r="AR60" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
       <c r="AS60" t="inlineStr"/>
       <c r="AT60" t="inlineStr"/>
       <c r="AU60" t="inlineStr"/>
-      <c r="AV60" t="inlineStr"/>
+      <c r="AV60" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
       <c r="AW60" t="inlineStr"/>
       <c r="AX60" t="inlineStr"/>
       <c r="AY60" t="inlineStr"/>
       <c r="AZ60" t="inlineStr"/>
-      <c r="BA60" t="inlineStr"/>
+      <c r="BA60" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
       <c r="BB60" t="inlineStr"/>
-      <c r="BC60" t="inlineStr"/>
-      <c r="BD60" t="inlineStr"/>
+      <c r="BC60" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="BD60" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
       <c r="BE60" t="inlineStr"/>
-      <c r="BF60" t="inlineStr"/>
+      <c r="BF60" t="inlineStr">
+        <is>
+          <t>11101</t>
+        </is>
+      </c>
       <c r="BG60" t="inlineStr"/>
-      <c r="BH60" t="inlineStr"/>
-      <c r="BI60" t="inlineStr"/>
+      <c r="BH60" t="inlineStr">
+        <is>
+          <t>11110</t>
+        </is>
+      </c>
+      <c r="BI60" t="inlineStr">
+        <is>
+          <t>11010</t>
+        </is>
+      </c>
       <c r="BJ60" t="inlineStr"/>
-      <c r="BK60" t="inlineStr"/>
-      <c r="BL60" t="inlineStr"/>
+      <c r="BK60" t="inlineStr">
+        <is>
+          <t>11010</t>
+        </is>
+      </c>
+      <c r="BL60" t="inlineStr">
+        <is>
+          <t>111010</t>
+        </is>
+      </c>
       <c r="BM60" t="inlineStr">
         <is>
           <t>0</t>
@@ -6522,7 +7250,11 @@
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr"/>
-      <c r="AH61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
       <c r="AI61" t="inlineStr"/>
       <c r="AJ61" t="inlineStr"/>
       <c r="AK61" t="inlineStr"/>
@@ -6532,7 +7264,11 @@
       <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>
-      <c r="AR61" t="inlineStr"/>
+      <c r="AR61" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
       <c r="AS61" t="inlineStr"/>
       <c r="AT61" t="inlineStr"/>
       <c r="AU61" t="inlineStr"/>
@@ -6541,7 +7277,11 @@
       <c r="AX61" t="inlineStr"/>
       <c r="AY61" t="inlineStr"/>
       <c r="AZ61" t="inlineStr"/>
-      <c r="BA61" t="inlineStr"/>
+      <c r="BA61" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
       <c r="BB61" t="inlineStr"/>
       <c r="BC61" t="inlineStr">
         <is>
@@ -6550,7 +7290,11 @@
       </c>
       <c r="BD61" t="inlineStr"/>
       <c r="BE61" t="inlineStr"/>
-      <c r="BF61" t="inlineStr"/>
+      <c r="BF61" t="inlineStr">
+        <is>
+          <t>11101</t>
+        </is>
+      </c>
       <c r="BG61" t="inlineStr"/>
       <c r="BH61" t="inlineStr">
         <is>
@@ -6624,29 +7368,37 @@
       <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr"/>
       <c r="AT62" t="inlineStr"/>
-      <c r="AU62" t="inlineStr"/>
+      <c r="AU62" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
       <c r="AV62" t="inlineStr"/>
       <c r="AW62" t="inlineStr"/>
       <c r="AX62" t="inlineStr"/>
-      <c r="AY62" t="inlineStr">
+      <c r="AY62" t="inlineStr"/>
+      <c r="AZ62" t="inlineStr">
         <is>
           <t>1100</t>
         </is>
       </c>
-      <c r="AZ62" t="inlineStr"/>
       <c r="BA62" t="inlineStr"/>
       <c r="BB62" t="inlineStr"/>
       <c r="BC62" t="inlineStr"/>
       <c r="BD62" t="inlineStr"/>
       <c r="BE62" t="inlineStr"/>
       <c r="BF62" t="inlineStr"/>
-      <c r="BG62" t="inlineStr"/>
-      <c r="BH62" t="inlineStr">
+      <c r="BG62" t="inlineStr">
+        <is>
+          <t>11110</t>
+        </is>
+      </c>
+      <c r="BH62" t="inlineStr"/>
+      <c r="BI62" t="inlineStr">
         <is>
           <t>11100</t>
         </is>
       </c>
-      <c r="BI62" t="inlineStr"/>
       <c r="BJ62" t="inlineStr">
         <is>
           <t>11100</t>
@@ -6773,37 +7525,89 @@
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
-      <c r="AH64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
       <c r="AI64" t="inlineStr"/>
       <c r="AJ64" t="inlineStr"/>
       <c r="AK64" t="inlineStr"/>
-      <c r="AL64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr"/>
       <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr"/>
       <c r="AQ64" t="inlineStr"/>
-      <c r="AR64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
       <c r="AS64" t="inlineStr"/>
       <c r="AT64" t="inlineStr"/>
-      <c r="AU64" t="inlineStr"/>
-      <c r="AV64" t="inlineStr"/>
+      <c r="AU64" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="AV64" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
       <c r="AW64" t="inlineStr"/>
       <c r="AX64" t="inlineStr"/>
       <c r="AY64" t="inlineStr"/>
       <c r="AZ64" t="inlineStr"/>
-      <c r="BA64" t="inlineStr"/>
+      <c r="BA64" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
       <c r="BB64" t="inlineStr"/>
       <c r="BC64" t="inlineStr"/>
-      <c r="BD64" t="inlineStr"/>
+      <c r="BD64" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
       <c r="BE64" t="inlineStr"/>
-      <c r="BF64" t="inlineStr"/>
-      <c r="BG64" t="inlineStr"/>
-      <c r="BH64" t="inlineStr"/>
-      <c r="BI64" t="inlineStr"/>
+      <c r="BF64" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="BG64" t="inlineStr">
+        <is>
+          <t>11110</t>
+        </is>
+      </c>
+      <c r="BH64" t="inlineStr">
+        <is>
+          <t>11110</t>
+        </is>
+      </c>
+      <c r="BI64" t="inlineStr">
+        <is>
+          <t>11110</t>
+        </is>
+      </c>
       <c r="BJ64" t="inlineStr"/>
-      <c r="BK64" t="inlineStr"/>
-      <c r="BL64" t="inlineStr"/>
+      <c r="BK64" t="inlineStr">
+        <is>
+          <t>11110</t>
+        </is>
+      </c>
+      <c r="BL64" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
       <c r="BM64" t="inlineStr">
         <is>
           <t>0</t>
@@ -6846,7 +7650,11 @@
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
-      <c r="AH65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
       <c r="AI65" t="inlineStr"/>
       <c r="AJ65" t="inlineStr"/>
       <c r="AK65" t="inlineStr"/>
@@ -6856,7 +7664,11 @@
       <c r="AO65" t="inlineStr"/>
       <c r="AP65" t="inlineStr"/>
       <c r="AQ65" t="inlineStr"/>
-      <c r="AR65" t="inlineStr"/>
+      <c r="AR65" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
       <c r="AS65" t="inlineStr"/>
       <c r="AT65" t="inlineStr"/>
       <c r="AU65" t="inlineStr"/>
@@ -6865,7 +7677,11 @@
       <c r="AX65" t="inlineStr"/>
       <c r="AY65" t="inlineStr"/>
       <c r="AZ65" t="inlineStr"/>
-      <c r="BA65" t="inlineStr"/>
+      <c r="BA65" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
       <c r="BB65" t="inlineStr"/>
       <c r="BC65" t="inlineStr">
         <is>
@@ -6874,7 +7690,11 @@
       </c>
       <c r="BD65" t="inlineStr"/>
       <c r="BE65" t="inlineStr"/>
-      <c r="BF65" t="inlineStr"/>
+      <c r="BF65" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
       <c r="BG65" t="inlineStr"/>
       <c r="BH65" t="inlineStr">
         <is>

--- a/Final.xlsx
+++ b/Final.xlsx
@@ -1698,7 +1698,7 @@
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="BM26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="BM28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="BM32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="BM37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="BM41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="BM50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="BM54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="BM60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="BM64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
